--- a/外部計画書/ER図.xlsx
+++ b/外部計画書/ER図.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\GitHub\PMyabukikenC\外部計画書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harukawa\Documents\GitHub\PMyabukikenC\外部計画書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
